--- a/TeamManagement.xlsx
+++ b/TeamManagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFPT_Ki_7\PRU211m\Pru211mGroup2\Pru211mGroup2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4876553-B308-4F11-BB63-C5415B99A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B893F9B-2F72-4AB9-A2E9-58428CAD4B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskManagement" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Tên</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Ordinal numbers</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Deadline</t>
   </si>
   <si>
@@ -125,6 +122,47 @@
   </si>
   <si>
     <t>Describe</t>
+  </si>
+  <si>
+    <t>Week 1:</t>
+  </si>
+  <si>
+    <t>Week 2:</t>
+  </si>
+  <si>
+    <t>Week 3:</t>
+  </si>
+  <si>
+    <t>Week 4:</t>
+  </si>
+  <si>
+    <t>DemoGame:</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Link Coursera: https://www.coursera.org/learn/csharp-class-development</t>
+  </si>
+  <si>
+    <t>Trình bày week 1, sau khi xong thì cần có một app game console demo game dễ dễ sử dụng mấy cái có trong week 1</t>
+  </si>
+  <si>
+    <t>Trình bày week 2, sau khi xong thì cần có một app game console demo game dễ dễ sử dụng trong week 2</t>
+  </si>
+  <si>
+    <t>Trình bày week 3, va chạm nổ,( auto gen kẻ thù xem lại Cousera 2)</t>
+  </si>
+  <si>
+    <t>Trình bày week 4 
+Text, string, char, canvas (add menu, point, game over,… ) vào game của week 3
+Add audio (Start game, game over, bắn đạn, nổ) vào game của week 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo 1 game </t>
+  </si>
+  <si>
+    <t>14/2/2023</t>
   </si>
 </sst>
 </file>
@@ -211,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,6 +272,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -242,7 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -258,6 +305,40 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,18 +623,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FB67F3-E58C-4548-962D-13DEC3F9EA13}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -561,147 +642,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <f>1+A2</f>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15">
+        <v>45171</v>
+      </c>
+      <c r="F3" s="15">
+        <v>45262</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
+      <c r="A4">
+        <f>1+A3</f>
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <f t="shared" ref="A4:A13" si="0">1+A3</f>
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="15">
+        <v>45171</v>
+      </c>
+      <c r="F4" s="15">
+        <v>45262</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="A5:A14" si="0">1+A4</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="15">
+        <v>45171</v>
+      </c>
+      <c r="F5" s="16">
+        <v>45262</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45171</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="39" customHeight="1">
       <c r="A7">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="15">
+        <v>45171</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="39" customHeight="1">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E8" s="15">
+        <v>45171</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="15">
+        <v>45171</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{CD646D66-BD06-4ADE-BD27-98C7872872AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7 G9" xr:uid="{CD646D66-BD06-4ADE-BD27-98C7872872AC}">
       <formula1>"Not Started, In progress, Complete, Reject"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1:G1" r:id="rId1" display="Link Coursera: https://www.coursera.org/learn/csharp-class-development" xr:uid="{BE85C173-D302-4041-882D-6C6CF9D87A8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -710,7 +899,7 @@
           <x14:formula1>
             <xm:f>MemberInformation!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D13</xm:sqref>
+          <xm:sqref>D3:D14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -722,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -823,7 +1012,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
